--- a/results/180504-AA08-1806-Black_to_the_forest_-_Open_CoOp.xlsx
+++ b/results/180504-AA08-1806-Black_to_the_forest_-_Open_CoOp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Kolja\SkyDrive\Dokumente\Frisbee\Rankings\Turniere-berechnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2386B427-63A2-44DA-8BE3-0B97B7C86851}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5739999-C686-40FC-B364-C1CA557E376C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="57870" windowHeight="11700" xr2:uid="{0A2B51A1-B2E5-4AFA-BBCD-7E61F48CF290}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{0A2B51A1-B2E5-4AFA-BBCD-7E61F48CF290}"/>
   </bookViews>
   <sheets>
     <sheet name="AA08" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_berechnungsmonat">[1]workflow!$E$3</definedName>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'AA08'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AA08'!#REF!</definedName>
     <definedName name="All_Divisions">[1]Dropdown!$G$3:$G$8</definedName>
     <definedName name="Bonus">[1]Bonus!$A$2:$B$201</definedName>
     <definedName name="Categories">[1]Dropdown!$D$3:$D$8</definedName>
@@ -30,7 +30,7 @@
     <definedName name="players_sorted2">'[1]Open Rankings'!$C$4:$C$2000</definedName>
     <definedName name="pointscale">[1]event_details!$BE$104:$EW$105</definedName>
     <definedName name="Pools">[1]Dropdown!$F$3:$F$10</definedName>
-    <definedName name="Print_Area" localSheetId="0">'AA08'!$A$1:$Q$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'AA08'!$A$1:$Q$66</definedName>
     <definedName name="Rounds">[1]Dropdown!$E$3:$E$8</definedName>
     <definedName name="table_countrycodes">[1]Dropdown!$I$3:$J$208</definedName>
     <definedName name="Women_Divisions">[1]Dropdown!$B$3:$B$5</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="68">
   <si>
     <t/>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Event:</t>
+  </si>
+  <si>
+    <t>Thaler, Frieder</t>
   </si>
 </sst>
 </file>
@@ -1668,6 +1671,258 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1680,18 +1935,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1716,249 +1959,9 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -11322,7 +11325,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11623,13 +11626,13 @@
   </sheetPr>
   <dimension ref="A1:AU87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B30" sqref="B30"/>
-      <selection pane="topRight" activeCell="S7" sqref="S7"/>
+      <selection pane="topRight" activeCell="AC59" sqref="AC59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -11665,16 +11668,16 @@
       <c r="G2" s="136"/>
       <c r="H2" s="136"/>
       <c r="I2" s="136"/>
-      <c r="J2" s="138" t="s">
+      <c r="J2" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="140"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
     </row>
     <row r="3" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="132" t="s">
@@ -11687,16 +11690,16 @@
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
       <c r="I3" s="131"/>
-      <c r="J3" s="141" t="s">
+      <c r="J3" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="143"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="187"/>
       <c r="S3" s="94"/>
       <c r="T3" s="135"/>
     </row>
@@ -11711,16 +11714,16 @@
       <c r="G4" s="133"/>
       <c r="H4" s="133"/>
       <c r="I4" s="133"/>
-      <c r="J4" s="144">
+      <c r="J4" s="204">
         <v>43224</v>
       </c>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="146"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="206"/>
     </row>
     <row r="5" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="132" t="s">
@@ -11733,16 +11736,16 @@
       <c r="G5" s="131"/>
       <c r="H5" s="131"/>
       <c r="I5" s="131"/>
-      <c r="J5" s="141" t="s">
+      <c r="J5" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="143"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="187"/>
     </row>
     <row r="6" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="134" t="s">
@@ -11755,16 +11758,16 @@
       <c r="G6" s="133"/>
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
-      <c r="J6" s="147">
+      <c r="J6" s="207">
         <v>24</v>
       </c>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="149"/>
+      <c r="K6" s="208"/>
+      <c r="L6" s="208"/>
+      <c r="M6" s="208"/>
+      <c r="N6" s="208"/>
+      <c r="O6" s="208"/>
+      <c r="P6" s="208"/>
+      <c r="Q6" s="209"/>
     </row>
     <row r="7" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="132" t="s">
@@ -11777,16 +11780,16 @@
       <c r="G7" s="131"/>
       <c r="H7" s="131"/>
       <c r="I7" s="131"/>
-      <c r="J7" s="150">
+      <c r="J7" s="198">
         <v>1</v>
       </c>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="152"/>
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="199"/>
+      <c r="Q7" s="200"/>
     </row>
     <row r="8" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="134" t="s">
@@ -11799,16 +11802,16 @@
       <c r="G8" s="133"/>
       <c r="H8" s="133"/>
       <c r="I8" s="133"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154" t="s">
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="155"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="190"/>
     </row>
     <row r="9" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="132" t="s">
@@ -11821,14 +11824,14 @@
       <c r="G9" s="131"/>
       <c r="H9" s="131"/>
       <c r="I9" s="131"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="143"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="187"/>
     </row>
     <row r="10" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="134" t="s">
@@ -11841,14 +11844,14 @@
       <c r="G10" s="133"/>
       <c r="H10" s="133"/>
       <c r="I10" s="133"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="157"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="196"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="197"/>
     </row>
     <row r="11" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="132" t="s">
@@ -11861,16 +11864,16 @@
       <c r="G11" s="131"/>
       <c r="H11" s="131"/>
       <c r="I11" s="131"/>
-      <c r="J11" s="141">
+      <c r="J11" s="185">
         <v>1806</v>
       </c>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="143"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="186"/>
+      <c r="Q11" s="187"/>
       <c r="U11" s="130"/>
     </row>
     <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -11884,35 +11887,35 @@
       <c r="G12" s="128"/>
       <c r="H12" s="128"/>
       <c r="I12" s="128"/>
-      <c r="J12" s="153">
+      <c r="J12" s="188">
         <v>2006</v>
       </c>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="155"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="190"/>
       <c r="S12" s="127"/>
     </row>
     <row r="13" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="168"/>
-      <c r="M13" s="168"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="169"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="195"/>
     </row>
     <row r="14" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="R14" s="8"/>
@@ -11941,9 +11944,9 @@
       <c r="O15" s="81"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="80"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="171"/>
-      <c r="U15" s="172"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="144"/>
       <c r="V15" s="79"/>
       <c r="W15" s="78">
         <v>1</v>
@@ -11994,11 +11997,11 @@
       <c r="Q16" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="S16" s="158" t="s">
+      <c r="S16" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="T16" s="159"/>
-      <c r="U16" s="160"/>
+      <c r="T16" s="152"/>
+      <c r="U16" s="153"/>
       <c r="V16" s="67"/>
       <c r="W16" s="9"/>
     </row>
@@ -12062,7 +12065,7 @@
     </row>
     <row r="18" spans="1:47" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="161">
+      <c r="B18" s="148">
         <v>1</v>
       </c>
       <c r="C18" s="52">
@@ -12105,7 +12108,7 @@
       <c r="P18" s="43">
         <v>150</v>
       </c>
-      <c r="Q18" s="164" t="s">
+      <c r="Q18" s="141" t="s">
         <v>6</v>
       </c>
       <c r="R18" s="1"/>
@@ -12148,7 +12151,7 @@
     </row>
     <row r="19" spans="1:47" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="162"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="38">
         <v>1</v>
       </c>
@@ -12189,7 +12192,7 @@
       <c r="P19" s="29">
         <v>150</v>
       </c>
-      <c r="Q19" s="164"/>
+      <c r="Q19" s="141"/>
       <c r="R19" s="1"/>
       <c r="S19" s="120" t="s">
         <v>46</v>
@@ -12230,7 +12233,7 @@
     </row>
     <row r="20" spans="1:47" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="163"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="24">
         <v>1</v>
       </c>
@@ -12271,7 +12274,7 @@
       <c r="P20" s="14">
         <v>150</v>
       </c>
-      <c r="Q20" s="164"/>
+      <c r="Q20" s="141"/>
       <c r="R20" s="1"/>
       <c r="S20" s="53" t="s">
         <v>45</v>
@@ -12312,7 +12315,7 @@
     </row>
     <row r="21" spans="1:47" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="161">
+      <c r="B21" s="148">
         <v>2</v>
       </c>
       <c r="C21" s="52">
@@ -12355,7 +12358,7 @@
       <c r="P21" s="43">
         <v>104</v>
       </c>
-      <c r="Q21" s="164" t="s">
+      <c r="Q21" s="141" t="s">
         <v>6</v>
       </c>
       <c r="R21" s="1"/>
@@ -12398,7 +12401,7 @@
     </row>
     <row r="22" spans="1:47" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="162"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="38">
         <v>2</v>
       </c>
@@ -12439,7 +12442,7 @@
       <c r="P22" s="29">
         <v>104</v>
       </c>
-      <c r="Q22" s="164"/>
+      <c r="Q22" s="141"/>
       <c r="R22" s="1"/>
       <c r="S22" s="53" t="s">
         <v>8</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="23" spans="1:47" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="163"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="24">
         <v>2</v>
       </c>
@@ -12521,7 +12524,7 @@
       <c r="P23" s="14">
         <v>104</v>
       </c>
-      <c r="Q23" s="164"/>
+      <c r="Q23" s="141"/>
       <c r="R23" s="1"/>
       <c r="S23" s="120" t="s">
         <v>7</v>
@@ -12607,158 +12610,158 @@
       <c r="P25" s="80"/>
       <c r="Q25" s="80"/>
       <c r="R25" s="68"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="171"/>
-      <c r="U25" s="176"/>
+      <c r="S25" s="142"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="166"/>
       <c r="V25" s="118"/>
       <c r="W25" s="78">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="177" t="s">
+      <c r="B26" s="163" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
-      <c r="E26" s="180" t="s">
+      <c r="E26" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="183" t="s">
+      <c r="F26" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="173" t="s">
+      <c r="G26" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="173" t="s">
+      <c r="H26" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="188" t="s">
+      <c r="I26" s="175" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="109"/>
-      <c r="K26" s="177" t="s">
+      <c r="K26" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="173" t="s">
+      <c r="L26" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="173" t="s">
+      <c r="N26" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="O26" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="P26" s="191" t="s">
+      <c r="O26" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="192" t="s">
+      <c r="Q26" s="160" t="s">
         <v>15</v>
       </c>
       <c r="R26" s="68"/>
-      <c r="S26" s="195" t="s">
+      <c r="S26" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="196"/>
-      <c r="U26" s="197"/>
+      <c r="T26" s="177"/>
+      <c r="U26" s="178"/>
       <c r="V26" s="58"/>
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="178"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="117"/>
       <c r="D27" s="117"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="189"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="158"/>
       <c r="J27" s="109"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="174" t="s">
+      <c r="K27" s="164"/>
+      <c r="L27" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="174" t="s">
+      <c r="N27" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="O27" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" s="189"/>
-      <c r="Q27" s="193"/>
+      <c r="O27" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="161"/>
       <c r="R27" s="68"/>
-      <c r="S27" s="198"/>
-      <c r="T27" s="199"/>
-      <c r="U27" s="200"/>
+      <c r="S27" s="179"/>
+      <c r="T27" s="180"/>
+      <c r="U27" s="181"/>
       <c r="V27" s="116"/>
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="178"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="117"/>
       <c r="D28" s="117"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="189"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="158"/>
       <c r="J28" s="109"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28" s="174" t="s">
+      <c r="K28" s="164"/>
+      <c r="L28" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="174" t="s">
+      <c r="N28" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="O28" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="193"/>
+      <c r="O28" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="161"/>
       <c r="R28" s="68"/>
-      <c r="S28" s="198"/>
-      <c r="T28" s="199"/>
-      <c r="U28" s="200"/>
+      <c r="S28" s="179"/>
+      <c r="T28" s="180"/>
+      <c r="U28" s="181"/>
       <c r="V28" s="116"/>
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:47" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="179"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="115"/>
       <c r="D29" s="115"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="190"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="159"/>
       <c r="J29" s="63"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" s="175" t="s">
+      <c r="K29" s="165"/>
+      <c r="L29" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="175" t="s">
+      <c r="N29" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="O29" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" s="190"/>
-      <c r="Q29" s="194"/>
-      <c r="S29" s="201"/>
-      <c r="T29" s="202"/>
-      <c r="U29" s="203"/>
+      <c r="O29" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="162"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="183"/>
+      <c r="U29" s="184"/>
       <c r="V29" s="114"/>
       <c r="W29" s="9"/>
     </row>
@@ -12796,7 +12799,7 @@
       <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="161">
+      <c r="B31" s="148">
         <v>1</v>
       </c>
       <c r="C31" s="52">
@@ -12839,7 +12842,7 @@
       <c r="P31" s="43">
         <v>0</v>
       </c>
-      <c r="Q31" s="164" t="s">
+      <c r="Q31" s="141" t="s">
         <v>6</v>
       </c>
       <c r="S31" s="53" t="s">
@@ -12857,7 +12860,7 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="162"/>
+      <c r="B32" s="149"/>
       <c r="C32" s="38">
         <v>1</v>
       </c>
@@ -12898,7 +12901,7 @@
       <c r="P32" s="29">
         <v>0</v>
       </c>
-      <c r="Q32" s="164"/>
+      <c r="Q32" s="141"/>
       <c r="S32" s="42" t="s">
         <v>0</v>
       </c>
@@ -12914,7 +12917,7 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:45" s="68" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="163"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="24">
         <v>1</v>
       </c>
@@ -12955,7 +12958,7 @@
       <c r="P33" s="14">
         <v>0</v>
       </c>
-      <c r="Q33" s="164"/>
+      <c r="Q33" s="141"/>
       <c r="R33" s="1"/>
       <c r="S33" s="28" t="s">
         <v>0</v>
@@ -12973,7 +12976,7 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34" spans="1:45" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="161">
+      <c r="B34" s="148">
         <v>2</v>
       </c>
       <c r="C34" s="52">
@@ -13016,7 +13019,7 @@
       <c r="P34" s="43">
         <v>75.5</v>
       </c>
-      <c r="Q34" s="164" t="s">
+      <c r="Q34" s="141" t="s">
         <v>6</v>
       </c>
       <c r="S34" s="42" t="s">
@@ -13034,7 +13037,7 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="1:45" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="162"/>
+      <c r="B35" s="149"/>
       <c r="C35" s="38">
         <v>2</v>
       </c>
@@ -13075,7 +13078,7 @@
       <c r="P35" s="29">
         <v>75.5</v>
       </c>
-      <c r="Q35" s="164"/>
+      <c r="Q35" s="141"/>
       <c r="S35" s="28" t="s">
         <v>38</v>
       </c>
@@ -13091,7 +13094,7 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:45" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="163"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="24">
         <v>2</v>
       </c>
@@ -13132,7 +13135,7 @@
       <c r="P36" s="14">
         <v>75.5</v>
       </c>
-      <c r="Q36" s="164"/>
+      <c r="Q36" s="141"/>
       <c r="S36" s="42" t="s">
         <v>37</v>
       </c>
@@ -13199,9 +13202,9 @@
       <c r="P38" s="80"/>
       <c r="Q38" s="80"/>
       <c r="R38" s="68"/>
-      <c r="S38" s="170"/>
-      <c r="T38" s="171"/>
-      <c r="U38" s="172"/>
+      <c r="S38" s="142"/>
+      <c r="T38" s="143"/>
+      <c r="U38" s="144"/>
       <c r="V38" s="79"/>
       <c r="W38" s="78">
         <v>3</v>
@@ -13251,11 +13254,11 @@
       <c r="Q39" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="S39" s="158" t="s">
+      <c r="S39" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="T39" s="159"/>
-      <c r="U39" s="160"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="153"/>
       <c r="V39" s="67"/>
       <c r="W39" s="9"/>
     </row>
@@ -13295,7 +13298,7 @@
     </row>
     <row r="41" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="97"/>
-      <c r="B41" s="161">
+      <c r="B41" s="148">
         <v>1</v>
       </c>
       <c r="C41" s="52">
@@ -13338,7 +13341,7 @@
       <c r="P41" s="43">
         <v>0</v>
       </c>
-      <c r="Q41" s="164" t="s">
+      <c r="Q41" s="141" t="s">
         <v>6</v>
       </c>
       <c r="R41" s="1"/>
@@ -13379,7 +13382,7 @@
     </row>
     <row r="42" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="97"/>
-      <c r="B42" s="162"/>
+      <c r="B42" s="149"/>
       <c r="C42" s="38">
         <v>1</v>
       </c>
@@ -13420,7 +13423,7 @@
       <c r="P42" s="29">
         <v>0</v>
       </c>
-      <c r="Q42" s="164"/>
+      <c r="Q42" s="141"/>
       <c r="R42" s="1"/>
       <c r="S42" s="42" t="s">
         <v>0</v>
@@ -13459,7 +13462,7 @@
     </row>
     <row r="43" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="97"/>
-      <c r="B43" s="163"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="24">
         <v>1</v>
       </c>
@@ -13500,7 +13503,7 @@
       <c r="P43" s="14">
         <v>0</v>
       </c>
-      <c r="Q43" s="164"/>
+      <c r="Q43" s="141"/>
       <c r="R43" s="1"/>
       <c r="S43" s="28" t="s">
         <v>0</v>
@@ -13539,7 +13542,7 @@
     </row>
     <row r="44" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="97"/>
-      <c r="B44" s="161">
+      <c r="B44" s="148">
         <v>2</v>
       </c>
       <c r="C44" s="52">
@@ -13582,7 +13585,7 @@
       <c r="P44" s="43">
         <v>77</v>
       </c>
-      <c r="Q44" s="164" t="s">
+      <c r="Q44" s="141" t="s">
         <v>6</v>
       </c>
       <c r="R44" s="1"/>
@@ -13623,7 +13626,7 @@
     </row>
     <row r="45" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="97"/>
-      <c r="B45" s="162"/>
+      <c r="B45" s="149"/>
       <c r="C45" s="38">
         <v>2</v>
       </c>
@@ -13664,7 +13667,7 @@
       <c r="P45" s="29">
         <v>77</v>
       </c>
-      <c r="Q45" s="164"/>
+      <c r="Q45" s="141"/>
       <c r="R45" s="1"/>
       <c r="S45" s="28" t="s">
         <v>31</v>
@@ -13703,7 +13706,7 @@
     </row>
     <row r="46" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="97"/>
-      <c r="B46" s="163"/>
+      <c r="B46" s="150"/>
       <c r="C46" s="24">
         <v>2</v>
       </c>
@@ -13744,7 +13747,7 @@
       <c r="P46" s="14">
         <v>77</v>
       </c>
-      <c r="Q46" s="164"/>
+      <c r="Q46" s="141"/>
       <c r="R46" s="1"/>
       <c r="S46" s="42" t="s">
         <v>30</v>
@@ -13832,9 +13835,9 @@
       <c r="P48" s="80"/>
       <c r="Q48" s="80"/>
       <c r="R48" s="68"/>
-      <c r="S48" s="170"/>
-      <c r="T48" s="171"/>
-      <c r="U48" s="172"/>
+      <c r="S48" s="142"/>
+      <c r="T48" s="143"/>
+      <c r="U48" s="144"/>
       <c r="V48" s="79"/>
       <c r="W48" s="78">
         <v>4</v>
@@ -13885,11 +13888,11 @@
         <v>15</v>
       </c>
       <c r="R49" s="68"/>
-      <c r="S49" s="204" t="s">
+      <c r="S49" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="T49" s="205"/>
-      <c r="U49" s="206"/>
+      <c r="T49" s="146"/>
+      <c r="U49" s="147"/>
       <c r="V49" s="67"/>
       <c r="W49" s="9"/>
     </row>
@@ -13929,7 +13932,7 @@
     </row>
     <row r="51" spans="1:45" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="97"/>
-      <c r="B51" s="161">
+      <c r="B51" s="148">
         <v>1</v>
       </c>
       <c r="C51" s="52">
@@ -13972,7 +13975,7 @@
       <c r="P51" s="43">
         <v>0</v>
       </c>
-      <c r="Q51" s="164" t="s">
+      <c r="Q51" s="141" t="s">
         <v>6</v>
       </c>
       <c r="S51" s="53" t="s">
@@ -13991,7 +13994,7 @@
     </row>
     <row r="52" spans="1:45" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="97"/>
-      <c r="B52" s="162"/>
+      <c r="B52" s="149"/>
       <c r="C52" s="38">
         <v>1</v>
       </c>
@@ -14032,7 +14035,7 @@
       <c r="P52" s="29">
         <v>0</v>
       </c>
-      <c r="Q52" s="164"/>
+      <c r="Q52" s="141"/>
       <c r="S52" s="42" t="s">
         <v>0</v>
       </c>
@@ -14049,7 +14052,7 @@
     </row>
     <row r="53" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="97"/>
-      <c r="B53" s="163"/>
+      <c r="B53" s="150"/>
       <c r="C53" s="24">
         <v>1</v>
       </c>
@@ -14090,7 +14093,7 @@
       <c r="P53" s="14">
         <v>0</v>
       </c>
-      <c r="Q53" s="164"/>
+      <c r="Q53" s="141"/>
       <c r="R53" s="1"/>
       <c r="S53" s="28" t="s">
         <v>0</v>
@@ -14129,7 +14132,7 @@
     </row>
     <row r="54" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="97"/>
-      <c r="B54" s="161">
+      <c r="B54" s="148">
         <v>2</v>
       </c>
       <c r="C54" s="52">
@@ -14172,7 +14175,7 @@
       <c r="P54" s="43">
         <v>48.75</v>
       </c>
-      <c r="Q54" s="164" t="s">
+      <c r="Q54" s="141" t="s">
         <v>6</v>
       </c>
       <c r="R54" s="1"/>
@@ -14213,7 +14216,7 @@
     </row>
     <row r="55" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="97"/>
-      <c r="B55" s="162"/>
+      <c r="B55" s="149"/>
       <c r="C55" s="38">
         <v>2</v>
       </c>
@@ -14254,7 +14257,7 @@
       <c r="P55" s="29">
         <v>48.75</v>
       </c>
-      <c r="Q55" s="164"/>
+      <c r="Q55" s="141"/>
       <c r="R55" s="1"/>
       <c r="S55" s="28" t="s">
         <v>43</v>
@@ -14293,7 +14296,7 @@
     </row>
     <row r="56" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="97"/>
-      <c r="B56" s="163"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="24">
         <v>2</v>
       </c>
@@ -14304,7 +14307,7 @@
         <v>42</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>2</v>
@@ -14334,7 +14337,7 @@
       <c r="P56" s="14">
         <v>48.75</v>
       </c>
-      <c r="Q56" s="164"/>
+      <c r="Q56" s="141"/>
       <c r="R56" s="1"/>
       <c r="S56" s="13" t="s">
         <v>41</v>
@@ -14424,9 +14427,9 @@
       <c r="P58" s="80"/>
       <c r="Q58" s="80"/>
       <c r="R58" s="68"/>
-      <c r="S58" s="170"/>
-      <c r="T58" s="171"/>
-      <c r="U58" s="172"/>
+      <c r="S58" s="142"/>
+      <c r="T58" s="143"/>
+      <c r="U58" s="144"/>
       <c r="V58" s="79"/>
       <c r="W58" s="78">
         <v>5</v>
@@ -14476,11 +14479,11 @@
         <v>15</v>
       </c>
       <c r="R59" s="68"/>
-      <c r="S59" s="204" t="s">
+      <c r="S59" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="T59" s="205"/>
-      <c r="U59" s="206"/>
+      <c r="T59" s="146"/>
+      <c r="U59" s="147"/>
       <c r="V59" s="67"/>
       <c r="W59" s="9"/>
     </row>
@@ -14518,7 +14521,7 @@
       <c r="W60" s="9"/>
     </row>
     <row r="61" spans="1:45" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="161">
+      <c r="B61" s="148">
         <v>1</v>
       </c>
       <c r="C61" s="52">
@@ -14561,7 +14564,7 @@
       <c r="P61" s="43">
         <v>0</v>
       </c>
-      <c r="Q61" s="164" t="s">
+      <c r="Q61" s="141" t="s">
         <v>6</v>
       </c>
       <c r="S61" s="53" t="s">
@@ -14579,7 +14582,7 @@
       <c r="W61" s="9"/>
     </row>
     <row r="62" spans="1:45" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="162"/>
+      <c r="B62" s="149"/>
       <c r="C62" s="38">
         <v>1</v>
       </c>
@@ -14620,7 +14623,7 @@
       <c r="P62" s="29">
         <v>0</v>
       </c>
-      <c r="Q62" s="164"/>
+      <c r="Q62" s="141"/>
       <c r="S62" s="42" t="s">
         <v>0</v>
       </c>
@@ -14636,7 +14639,7 @@
       <c r="W62" s="9"/>
     </row>
     <row r="63" spans="1:45" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="163"/>
+      <c r="B63" s="150"/>
       <c r="C63" s="24">
         <v>1</v>
       </c>
@@ -14677,7 +14680,7 @@
       <c r="P63" s="14">
         <v>0</v>
       </c>
-      <c r="Q63" s="164"/>
+      <c r="Q63" s="141"/>
       <c r="S63" s="28" t="s">
         <v>0</v>
       </c>
@@ -14693,7 +14696,7 @@
       <c r="W63" s="9"/>
     </row>
     <row r="64" spans="1:45" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="207">
+      <c r="B64" s="138">
         <v>2</v>
       </c>
       <c r="C64" s="52">
@@ -14736,7 +14739,7 @@
       <c r="P64" s="43">
         <v>48.75</v>
       </c>
-      <c r="Q64" s="164" t="s">
+      <c r="Q64" s="141" t="s">
         <v>6</v>
       </c>
       <c r="S64" s="13" t="s">
@@ -14755,7 +14758,7 @@
     </row>
     <row r="65" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="208"/>
+      <c r="B65" s="139"/>
       <c r="C65" s="38">
         <v>2</v>
       </c>
@@ -14796,7 +14799,7 @@
       <c r="P65" s="29">
         <v>48.75</v>
       </c>
-      <c r="Q65" s="164"/>
+      <c r="Q65" s="141"/>
       <c r="R65" s="1"/>
       <c r="S65" s="28" t="s">
         <v>35</v>
@@ -14835,7 +14838,7 @@
     </row>
     <row r="66" spans="1:45" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="209"/>
+      <c r="B66" s="140"/>
       <c r="C66" s="24">
         <v>2</v>
       </c>
@@ -14876,7 +14879,7 @@
       <c r="P66" s="14">
         <v>48.75</v>
       </c>
-      <c r="Q66" s="164"/>
+      <c r="Q66" s="141"/>
       <c r="R66" s="1"/>
       <c r="S66" s="42" t="s">
         <v>34</v>
@@ -14962,9 +14965,9 @@
       <c r="P68" s="80"/>
       <c r="Q68" s="80"/>
       <c r="R68" s="68"/>
-      <c r="S68" s="170"/>
-      <c r="T68" s="171"/>
-      <c r="U68" s="172"/>
+      <c r="S68" s="142"/>
+      <c r="T68" s="143"/>
+      <c r="U68" s="144"/>
       <c r="V68" s="79"/>
       <c r="W68" s="78">
         <v>6</v>
@@ -15014,11 +15017,11 @@
         <v>15</v>
       </c>
       <c r="R69" s="68"/>
-      <c r="S69" s="204" t="s">
+      <c r="S69" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="T69" s="205"/>
-      <c r="U69" s="206"/>
+      <c r="T69" s="146"/>
+      <c r="U69" s="147"/>
       <c r="V69" s="67"/>
       <c r="W69" s="9"/>
     </row>
@@ -15056,7 +15059,7 @@
       <c r="W70" s="9"/>
     </row>
     <row r="71" spans="1:45" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="161">
+      <c r="B71" s="148">
         <v>1</v>
       </c>
       <c r="C71" s="52">
@@ -15099,7 +15102,7 @@
       <c r="P71" s="43">
         <v>0</v>
       </c>
-      <c r="Q71" s="164" t="s">
+      <c r="Q71" s="141" t="s">
         <v>6</v>
       </c>
       <c r="S71" s="53" t="s">
@@ -15117,7 +15120,7 @@
       <c r="W71" s="9"/>
     </row>
     <row r="72" spans="1:45" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="162"/>
+      <c r="B72" s="149"/>
       <c r="C72" s="38">
         <v>1</v>
       </c>
@@ -15158,7 +15161,7 @@
       <c r="P72" s="29">
         <v>0</v>
       </c>
-      <c r="Q72" s="164"/>
+      <c r="Q72" s="141"/>
       <c r="S72" s="42" t="s">
         <v>0</v>
       </c>
@@ -15174,7 +15177,7 @@
       <c r="W72" s="9"/>
     </row>
     <row r="73" spans="1:45" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="163"/>
+      <c r="B73" s="150"/>
       <c r="C73" s="24">
         <v>1</v>
       </c>
@@ -15215,7 +15218,7 @@
       <c r="P73" s="14">
         <v>0</v>
       </c>
-      <c r="Q73" s="164"/>
+      <c r="Q73" s="141"/>
       <c r="S73" s="28" t="s">
         <v>0</v>
       </c>
@@ -15231,7 +15234,7 @@
       <c r="W73" s="9"/>
     </row>
     <row r="74" spans="1:45" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="207">
+      <c r="B74" s="138">
         <v>2</v>
       </c>
       <c r="C74" s="52">
@@ -15274,7 +15277,7 @@
       <c r="P74" s="43">
         <v>48.75</v>
       </c>
-      <c r="Q74" s="164" t="s">
+      <c r="Q74" s="141" t="s">
         <v>6</v>
       </c>
       <c r="S74" s="42" t="s">
@@ -15292,7 +15295,7 @@
       <c r="W74" s="9"/>
     </row>
     <row r="75" spans="1:45" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="208"/>
+      <c r="B75" s="139"/>
       <c r="C75" s="38">
         <v>2</v>
       </c>
@@ -15333,7 +15336,7 @@
       <c r="P75" s="29">
         <v>48.75</v>
       </c>
-      <c r="Q75" s="164"/>
+      <c r="Q75" s="141"/>
       <c r="S75" s="28" t="s">
         <v>28</v>
       </c>
@@ -15349,7 +15352,7 @@
       <c r="W75" s="9"/>
     </row>
     <row r="76" spans="1:45" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="209"/>
+      <c r="B76" s="140"/>
       <c r="C76" s="24">
         <v>2</v>
       </c>
@@ -15390,7 +15393,7 @@
       <c r="P76" s="14">
         <v>48.75</v>
       </c>
-      <c r="Q76" s="164"/>
+      <c r="Q76" s="141"/>
       <c r="S76" s="42" t="s">
         <v>27</v>
       </c>
@@ -15445,9 +15448,9 @@
       <c r="P78" s="80"/>
       <c r="Q78" s="80"/>
       <c r="R78" s="68"/>
-      <c r="S78" s="170"/>
-      <c r="T78" s="171"/>
-      <c r="U78" s="172"/>
+      <c r="S78" s="142"/>
+      <c r="T78" s="143"/>
+      <c r="U78" s="144"/>
       <c r="V78" s="79"/>
       <c r="W78" s="78">
         <v>7</v>
@@ -15497,11 +15500,11 @@
         <v>15</v>
       </c>
       <c r="R79" s="68"/>
-      <c r="S79" s="204" t="s">
+      <c r="S79" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="T79" s="205"/>
-      <c r="U79" s="206"/>
+      <c r="T79" s="146"/>
+      <c r="U79" s="147"/>
       <c r="V79" s="67"/>
       <c r="W79" s="9"/>
     </row>
@@ -15539,7 +15542,7 @@
       <c r="W80" s="9"/>
     </row>
     <row r="81" spans="2:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="207">
+      <c r="B81" s="138">
         <v>1</v>
       </c>
       <c r="C81" s="52">
@@ -15582,7 +15585,7 @@
       <c r="P81" s="43">
         <v>0</v>
       </c>
-      <c r="Q81" s="164" t="s">
+      <c r="Q81" s="141" t="s">
         <v>6</v>
       </c>
       <c r="S81" s="53" t="s">
@@ -15600,7 +15603,7 @@
       <c r="W81" s="9"/>
     </row>
     <row r="82" spans="2:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="208"/>
+      <c r="B82" s="139"/>
       <c r="C82" s="38">
         <v>1</v>
       </c>
@@ -15641,7 +15644,7 @@
       <c r="P82" s="29">
         <v>0</v>
       </c>
-      <c r="Q82" s="164"/>
+      <c r="Q82" s="141"/>
       <c r="S82" s="42" t="s">
         <v>0</v>
       </c>
@@ -15657,7 +15660,7 @@
       <c r="W82" s="9"/>
     </row>
     <row r="83" spans="2:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="209"/>
+      <c r="B83" s="140"/>
       <c r="C83" s="24">
         <v>1</v>
       </c>
@@ -15698,7 +15701,7 @@
       <c r="P83" s="14">
         <v>0</v>
       </c>
-      <c r="Q83" s="164"/>
+      <c r="Q83" s="141"/>
       <c r="S83" s="28" t="s">
         <v>0</v>
       </c>
@@ -15714,7 +15717,7 @@
       <c r="W83" s="9"/>
     </row>
     <row r="84" spans="2:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="207">
+      <c r="B84" s="138">
         <v>2</v>
       </c>
       <c r="C84" s="52">
@@ -15757,7 +15760,7 @@
       <c r="P84" s="43">
         <v>48.75</v>
       </c>
-      <c r="Q84" s="164" t="s">
+      <c r="Q84" s="141" t="s">
         <v>6</v>
       </c>
       <c r="S84" s="42" t="s">
@@ -15775,7 +15778,7 @@
       <c r="W84" s="9"/>
     </row>
     <row r="85" spans="2:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="208"/>
+      <c r="B85" s="139"/>
       <c r="C85" s="38">
         <v>2</v>
       </c>
@@ -15816,7 +15819,7 @@
       <c r="P85" s="29">
         <v>48.75</v>
       </c>
-      <c r="Q85" s="164"/>
+      <c r="Q85" s="141"/>
       <c r="S85" s="28" t="s">
         <v>3</v>
       </c>
@@ -15832,7 +15835,7 @@
       <c r="W85" s="9"/>
     </row>
     <row r="86" spans="2:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="209"/>
+      <c r="B86" s="140"/>
       <c r="C86" s="24">
         <v>2</v>
       </c>
@@ -15873,7 +15876,7 @@
       <c r="P86" s="14">
         <v>48.75</v>
       </c>
-      <c r="Q86" s="164"/>
+      <c r="Q86" s="141"/>
       <c r="S86" s="13" t="s">
         <v>1</v>
       </c>
@@ -15905,36 +15908,36 @@
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1"/>
   <mergeCells count="71">
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="Q84:Q86"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="Q81:Q83"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="Q71:Q73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="Q74:Q76"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="Q64:Q66"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="Q61:Q63"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="Q51:Q53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="Q54:Q56"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="Q44:Q46"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="S26:U29"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="Q34:Q36"/>
     <mergeCell ref="O26:O29"/>
@@ -15946,36 +15949,36 @@
     <mergeCell ref="L26:L29"/>
     <mergeCell ref="M26:M29"/>
     <mergeCell ref="N26:N29"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="S26:U29"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="Q44:Q46"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="Q51:Q53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="Q54:Q56"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="Q64:Q66"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="Q71:Q73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="Q74:Q76"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="Q84:Q86"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="Q81:Q83"/>
   </mergeCells>
   <conditionalFormatting sqref="Q18:Q23">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
